--- a/natmiOut/OldD2/LR-pairs_lrc2p/Fat4-Dchs1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Fat4-Dchs1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Dchs1</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>24.3520615473931</v>
+        <v>24.5658195</v>
       </c>
       <c r="H2">
-        <v>24.3520615473931</v>
+        <v>49.131639</v>
       </c>
       <c r="I2">
-        <v>0.5531146961257389</v>
+        <v>0.5389713294808645</v>
       </c>
       <c r="J2">
-        <v>0.5531146961257389</v>
+        <v>0.4504525342927069</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.5639841433086</v>
+        <v>16.582462</v>
       </c>
       <c r="N2">
-        <v>16.5639841433086</v>
+        <v>33.164924</v>
       </c>
       <c r="O2">
-        <v>0.6053608084015915</v>
+        <v>0.5920264449676317</v>
       </c>
       <c r="P2">
-        <v>0.6053608084015915</v>
+        <v>0.4964849860290766</v>
       </c>
       <c r="Q2">
-        <v>403.3671613278943</v>
+        <v>407.361768357609</v>
       </c>
       <c r="R2">
-        <v>403.3671613278943</v>
+        <v>1629.447073430436</v>
       </c>
       <c r="S2">
-        <v>0.3348339595854779</v>
+        <v>0.3190852801320343</v>
       </c>
       <c r="T2">
-        <v>0.3348339595854779</v>
+        <v>0.2236429201950768</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>24.3520615473931</v>
+        <v>24.5658195</v>
       </c>
       <c r="H3">
-        <v>24.3520615473931</v>
+        <v>49.131639</v>
       </c>
       <c r="I3">
-        <v>0.5531146961257389</v>
+        <v>0.5389713294808645</v>
       </c>
       <c r="J3">
-        <v>0.5531146961257389</v>
+        <v>0.4504525342927069</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.52618702799291</v>
+        <v>1.623796</v>
       </c>
       <c r="N3">
-        <v>1.52618702799291</v>
+        <v>4.871388</v>
       </c>
       <c r="O3">
-        <v>0.0557772698310049</v>
+        <v>0.05797270473061601</v>
       </c>
       <c r="P3">
-        <v>0.0557772698310049</v>
+        <v>0.07292557049496665</v>
       </c>
       <c r="Q3">
-        <v>37.1658004385163</v>
+        <v>39.88987944082199</v>
       </c>
       <c r="R3">
-        <v>37.1658004385163</v>
+        <v>239.339276644932</v>
       </c>
       <c r="S3">
-        <v>0.03085122765329962</v>
+        <v>0.03124562574226171</v>
       </c>
       <c r="T3">
-        <v>0.03085122765329962</v>
+        <v>0.03284950804419918</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>24.3520615473931</v>
+        <v>24.5658195</v>
       </c>
       <c r="H4">
-        <v>24.3520615473931</v>
+        <v>49.131639</v>
       </c>
       <c r="I4">
-        <v>0.5531146961257389</v>
+        <v>0.5389713294808645</v>
       </c>
       <c r="J4">
-        <v>0.5531146961257389</v>
+        <v>0.4504525342927069</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.0593219054180835</v>
+        <v>0.08579666666666667</v>
       </c>
       <c r="N4">
-        <v>0.0593219054180835</v>
+        <v>0.25739</v>
       </c>
       <c r="O4">
-        <v>0.002168026503111627</v>
+        <v>0.003063109419864166</v>
       </c>
       <c r="P4">
-        <v>0.002168026503111627</v>
+        <v>0.003853175437821719</v>
       </c>
       <c r="Q4">
-        <v>1.444610691849802</v>
+        <v>2.107665427035</v>
       </c>
       <c r="R4">
-        <v>1.444610691849802</v>
+        <v>12.64599256221</v>
       </c>
       <c r="S4">
-        <v>0.001199167320461136</v>
+        <v>0.001650928156369549</v>
       </c>
       <c r="T4">
-        <v>0.001199167320461136</v>
+        <v>0.001735672641041204</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>24.3520615473931</v>
+        <v>24.5658195</v>
       </c>
       <c r="H5">
-        <v>24.3520615473931</v>
+        <v>49.131639</v>
       </c>
       <c r="I5">
-        <v>0.5531146961257389</v>
+        <v>0.5389713294808645</v>
       </c>
       <c r="J5">
-        <v>0.5531146961257389</v>
+        <v>0.4504525342927069</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.277370254664192</v>
+        <v>0.2834936666666667</v>
       </c>
       <c r="N5">
-        <v>0.277370254664192</v>
+        <v>0.850481</v>
       </c>
       <c r="O5">
-        <v>0.01013699845021292</v>
+        <v>0.0101212804013967</v>
       </c>
       <c r="P5">
-        <v>0.01013699845021292</v>
+        <v>0.01273185632516436</v>
       </c>
       <c r="Q5">
-        <v>6.754537512998501</v>
+        <v>6.964254244726501</v>
       </c>
       <c r="R5">
-        <v>6.754537512998501</v>
+        <v>41.785525468359</v>
       </c>
       <c r="S5">
-        <v>0.005606922817416603</v>
+        <v>0.005455079953989395</v>
       </c>
       <c r="T5">
-        <v>0.005606922817416603</v>
+        <v>0.005735096947920914</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>24.3520615473931</v>
+        <v>24.5658195</v>
       </c>
       <c r="H6">
-        <v>24.3520615473931</v>
+        <v>49.131639</v>
       </c>
       <c r="I6">
-        <v>0.5531146961257389</v>
+        <v>0.5389713294808645</v>
       </c>
       <c r="J6">
-        <v>0.5531146961257389</v>
+        <v>0.4504525342927069</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.341486439949</v>
+        <v>8.787034999999999</v>
       </c>
       <c r="N6">
-        <v>8.341486439949</v>
+        <v>26.361105</v>
       </c>
       <c r="O6">
-        <v>0.304854733672173</v>
+        <v>0.31371439855289</v>
       </c>
       <c r="P6">
-        <v>0.304854733672173</v>
+        <v>0.3946305695630727</v>
       </c>
       <c r="Q6">
-        <v>203.132391182383</v>
+        <v>215.8607157501825</v>
       </c>
       <c r="R6">
-        <v>203.132391182383</v>
+        <v>1295.164294501095</v>
       </c>
       <c r="S6">
-        <v>0.1686196333775771</v>
+        <v>0.1690830664653409</v>
       </c>
       <c r="T6">
-        <v>0.1686196333775771</v>
+        <v>0.1777623401690605</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>24.3520615473931</v>
+        <v>24.5658195</v>
       </c>
       <c r="H7">
-        <v>24.3520615473931</v>
+        <v>49.131639</v>
       </c>
       <c r="I7">
-        <v>0.5531146961257389</v>
+        <v>0.5389713294808645</v>
       </c>
       <c r="J7">
-        <v>0.5531146961257389</v>
+        <v>0.4504525342927069</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.593818233967264</v>
+        <v>0.647081</v>
       </c>
       <c r="N7">
-        <v>0.593818233967264</v>
+        <v>1.294162</v>
       </c>
       <c r="O7">
-        <v>0.02170216314190606</v>
+        <v>0.02310206192760159</v>
       </c>
       <c r="P7">
-        <v>0.02170216314190606</v>
+        <v>0.01937384214989794</v>
       </c>
       <c r="Q7">
-        <v>14.46069818153509</v>
+        <v>15.8960750478795</v>
       </c>
       <c r="R7">
-        <v>14.46069818153509</v>
+        <v>63.584300191518</v>
       </c>
       <c r="S7">
-        <v>0.01200378537150658</v>
+        <v>0.01245134903086869</v>
       </c>
       <c r="T7">
-        <v>0.01200378537150658</v>
+        <v>0.008726996295408393</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.60677941756511</v>
+        <v>2.815447</v>
       </c>
       <c r="H8">
-        <v>2.60677941756511</v>
+        <v>8.446341</v>
       </c>
       <c r="I8">
-        <v>0.05920845767440609</v>
+        <v>0.06177059196714002</v>
       </c>
       <c r="J8">
-        <v>0.05920845767440609</v>
+        <v>0.07743840397733111</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.5639841433086</v>
+        <v>16.582462</v>
       </c>
       <c r="N8">
-        <v>16.5639841433086</v>
+        <v>33.164924</v>
       </c>
       <c r="O8">
-        <v>0.6053608084015915</v>
+        <v>0.5920264449676317</v>
       </c>
       <c r="P8">
-        <v>0.6053608084015915</v>
+        <v>0.4964849860290766</v>
       </c>
       <c r="Q8">
-        <v>43.17865293765171</v>
+        <v>46.687042890514</v>
       </c>
       <c r="R8">
-        <v>43.17865293765171</v>
+        <v>280.122257343084</v>
       </c>
       <c r="S8">
-        <v>0.03584247980198988</v>
+        <v>0.03656982396585205</v>
       </c>
       <c r="T8">
-        <v>0.03584247980198988</v>
+        <v>0.03844700491679923</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.60677941756511</v>
+        <v>2.815447</v>
       </c>
       <c r="H9">
-        <v>2.60677941756511</v>
+        <v>8.446341</v>
       </c>
       <c r="I9">
-        <v>0.05920845767440609</v>
+        <v>0.06177059196714002</v>
       </c>
       <c r="J9">
-        <v>0.05920845767440609</v>
+        <v>0.07743840397733111</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.52618702799291</v>
+        <v>1.623796</v>
       </c>
       <c r="N9">
-        <v>1.52618702799291</v>
+        <v>4.871388</v>
       </c>
       <c r="O9">
-        <v>0.0557772698310049</v>
+        <v>0.05797270473061601</v>
       </c>
       <c r="P9">
-        <v>0.0557772698310049</v>
+        <v>0.07292557049496665</v>
       </c>
       <c r="Q9">
-        <v>3.978432931926784</v>
+        <v>4.571711576812</v>
       </c>
       <c r="R9">
-        <v>3.978432931926784</v>
+        <v>41.145404191308</v>
       </c>
       <c r="S9">
-        <v>0.003302486119982982</v>
+        <v>0.00358100828914637</v>
       </c>
       <c r="T9">
-        <v>0.003302486119982982</v>
+        <v>0.005647239788266565</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.60677941756511</v>
+        <v>2.815447</v>
       </c>
       <c r="H10">
-        <v>2.60677941756511</v>
+        <v>8.446341</v>
       </c>
       <c r="I10">
-        <v>0.05920845767440609</v>
+        <v>0.06177059196714002</v>
       </c>
       <c r="J10">
-        <v>0.05920845767440609</v>
+        <v>0.07743840397733111</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.0593219054180835</v>
+        <v>0.08579666666666667</v>
       </c>
       <c r="N10">
-        <v>0.0593219054180835</v>
+        <v>0.25739</v>
       </c>
       <c r="O10">
-        <v>0.002168026503111627</v>
+        <v>0.003063109419864166</v>
       </c>
       <c r="P10">
-        <v>0.002168026503111627</v>
+        <v>0.003853175437821719</v>
       </c>
       <c r="Q10">
-        <v>0.1546391220546043</v>
+        <v>0.2415559677766667</v>
       </c>
       <c r="R10">
-        <v>0.1546391220546043</v>
+        <v>2.17400370999</v>
       </c>
       <c r="S10">
-        <v>0.0001283655054464754</v>
+        <v>0.0001892100821251324</v>
       </c>
       <c r="T10">
-        <v>0.0001283655054464754</v>
+        <v>0.0002983837561495679</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.60677941756511</v>
+        <v>2.815447</v>
       </c>
       <c r="H11">
-        <v>2.60677941756511</v>
+        <v>8.446341</v>
       </c>
       <c r="I11">
-        <v>0.05920845767440609</v>
+        <v>0.06177059196714002</v>
       </c>
       <c r="J11">
-        <v>0.05920845767440609</v>
+        <v>0.07743840397733111</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.277370254664192</v>
+        <v>0.2834936666666667</v>
       </c>
       <c r="N11">
-        <v>0.277370254664192</v>
+        <v>0.850481</v>
       </c>
       <c r="O11">
-        <v>0.01013699845021292</v>
+        <v>0.0101212804013967</v>
       </c>
       <c r="P11">
-        <v>0.01013699845021292</v>
+        <v>0.01273185632516436</v>
       </c>
       <c r="Q11">
-        <v>0.7230430709034087</v>
+        <v>0.7981613933356668</v>
       </c>
       <c r="R11">
-        <v>0.7230430709034087</v>
+        <v>7.183452540021</v>
       </c>
       <c r="S11">
-        <v>0.0006001960436849515</v>
+        <v>0.0006251974818596866</v>
       </c>
       <c r="T11">
-        <v>0.0006001960436849515</v>
+        <v>0.0009859346334894156</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.60677941756511</v>
+        <v>2.815447</v>
       </c>
       <c r="H12">
-        <v>2.60677941756511</v>
+        <v>8.446341</v>
       </c>
       <c r="I12">
-        <v>0.05920845767440609</v>
+        <v>0.06177059196714002</v>
       </c>
       <c r="J12">
-        <v>0.05920845767440609</v>
+        <v>0.07743840397733111</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.341486439949</v>
+        <v>8.787034999999999</v>
       </c>
       <c r="N12">
-        <v>8.341486439949</v>
+        <v>26.361105</v>
       </c>
       <c r="O12">
-        <v>0.304854733672173</v>
+        <v>0.31371439855289</v>
       </c>
       <c r="P12">
-        <v>0.304854733672173</v>
+        <v>0.3946305695630727</v>
       </c>
       <c r="Q12">
-        <v>21.74441516355752</v>
+        <v>24.739431329645</v>
       </c>
       <c r="R12">
-        <v>21.74441516355752</v>
+        <v>222.654881966805</v>
       </c>
       <c r="S12">
-        <v>0.0180499785954712</v>
+        <v>0.01937832410722731</v>
       </c>
       <c r="T12">
-        <v>0.0180499785954712</v>
+        <v>0.03055956146762949</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.60677941756511</v>
+        <v>2.815447</v>
       </c>
       <c r="H13">
-        <v>2.60677941756511</v>
+        <v>8.446341</v>
       </c>
       <c r="I13">
-        <v>0.05920845767440609</v>
+        <v>0.06177059196714002</v>
       </c>
       <c r="J13">
-        <v>0.05920845767440609</v>
+        <v>0.07743840397733111</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.593818233967264</v>
+        <v>0.647081</v>
       </c>
       <c r="N13">
-        <v>0.593818233967264</v>
+        <v>1.294162</v>
       </c>
       <c r="O13">
-        <v>0.02170216314190606</v>
+        <v>0.02310206192760159</v>
       </c>
       <c r="P13">
-        <v>0.02170216314190606</v>
+        <v>0.01937384214989794</v>
       </c>
       <c r="Q13">
-        <v>1.547953150080727</v>
+        <v>1.821822260207</v>
       </c>
       <c r="R13">
-        <v>1.547953150080727</v>
+        <v>10.930933561242</v>
       </c>
       <c r="S13">
-        <v>0.001284951607830601</v>
+        <v>0.001427028040929478</v>
       </c>
       <c r="T13">
-        <v>0.001284951607830601</v>
+        <v>0.001500279414996842</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,49 +1284,49 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>14.7979776567198</v>
+        <v>0.007919333333333334</v>
       </c>
       <c r="H14">
-        <v>14.7979776567198</v>
+        <v>0.023758</v>
       </c>
       <c r="I14">
-        <v>0.3361103083179524</v>
+        <v>0.0001737492866976733</v>
       </c>
       <c r="J14">
-        <v>0.3361103083179524</v>
+        <v>0.0002178199532428814</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>16.5639841433086</v>
+        <v>16.582462</v>
       </c>
       <c r="N14">
-        <v>16.5639841433086</v>
+        <v>33.164924</v>
       </c>
       <c r="O14">
-        <v>0.6053608084015915</v>
+        <v>0.5920264449676317</v>
       </c>
       <c r="P14">
-        <v>0.6053608084015915</v>
+        <v>0.4964849860290766</v>
       </c>
       <c r="Q14">
-        <v>245.1134672589417</v>
+        <v>0.1313220440653333</v>
       </c>
       <c r="R14">
-        <v>245.1134672589417</v>
+        <v>0.787932264392</v>
       </c>
       <c r="S14">
-        <v>0.2034680079554638</v>
+        <v>0.0001028641725192853</v>
       </c>
       <c r="T14">
-        <v>0.2034680079554638</v>
+        <v>0.0001081443364426461</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,49 +1346,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>14.7979776567198</v>
+        <v>0.007919333333333334</v>
       </c>
       <c r="H15">
-        <v>14.7979776567198</v>
+        <v>0.023758</v>
       </c>
       <c r="I15">
-        <v>0.3361103083179524</v>
+        <v>0.0001737492866976733</v>
       </c>
       <c r="J15">
-        <v>0.3361103083179524</v>
+        <v>0.0002178199532428814</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.52618702799291</v>
+        <v>1.623796</v>
       </c>
       <c r="N15">
-        <v>1.52618702799291</v>
+        <v>4.871388</v>
       </c>
       <c r="O15">
-        <v>0.0557772698310049</v>
+        <v>0.05797270473061601</v>
       </c>
       <c r="P15">
-        <v>0.0557772698310049</v>
+        <v>0.07292557049496665</v>
       </c>
       <c r="Q15">
-        <v>22.58448154021468</v>
+        <v>0.01285938178933333</v>
       </c>
       <c r="R15">
-        <v>22.58448154021468</v>
+        <v>0.115734436104</v>
       </c>
       <c r="S15">
-        <v>0.01874731536003268</v>
+        <v>1.007271609487936E-05</v>
       </c>
       <c r="T15">
-        <v>0.01874731536003268</v>
+        <v>1.588464435542409E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>14.7979776567198</v>
+        <v>0.007919333333333334</v>
       </c>
       <c r="H16">
-        <v>14.7979776567198</v>
+        <v>0.023758</v>
       </c>
       <c r="I16">
-        <v>0.3361103083179524</v>
+        <v>0.0001737492866976733</v>
       </c>
       <c r="J16">
-        <v>0.3361103083179524</v>
+        <v>0.0002178199532428814</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.0593219054180835</v>
+        <v>0.08579666666666667</v>
       </c>
       <c r="N16">
-        <v>0.0593219054180835</v>
+        <v>0.25739</v>
       </c>
       <c r="O16">
-        <v>0.002168026503111627</v>
+        <v>0.003063109419864166</v>
       </c>
       <c r="P16">
-        <v>0.002168026503111627</v>
+        <v>0.003853175437821719</v>
       </c>
       <c r="Q16">
-        <v>0.8778442309308448</v>
+        <v>0.0006794524022222223</v>
       </c>
       <c r="R16">
-        <v>0.8778442309308448</v>
+        <v>0.006115071620000001</v>
       </c>
       <c r="S16">
-        <v>0.0007286960564023409</v>
+        <v>5.322130767783227E-07</v>
       </c>
       <c r="T16">
-        <v>0.0007286960564023409</v>
+        <v>8.392984937029461E-07</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>27</v>
@@ -1470,49 +1470,49 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>14.7979776567198</v>
+        <v>0.007919333333333334</v>
       </c>
       <c r="H17">
-        <v>14.7979776567198</v>
+        <v>0.023758</v>
       </c>
       <c r="I17">
-        <v>0.3361103083179524</v>
+        <v>0.0001737492866976733</v>
       </c>
       <c r="J17">
-        <v>0.3361103083179524</v>
+        <v>0.0002178199532428814</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.277370254664192</v>
+        <v>0.2834936666666667</v>
       </c>
       <c r="N17">
-        <v>0.277370254664192</v>
+        <v>0.850481</v>
       </c>
       <c r="O17">
-        <v>0.01013699845021292</v>
+        <v>0.0101212804013967</v>
       </c>
       <c r="P17">
-        <v>0.01013699845021292</v>
+        <v>0.01273185632516436</v>
       </c>
       <c r="Q17">
-        <v>4.104518831159394</v>
+        <v>0.002245080844222223</v>
       </c>
       <c r="R17">
-        <v>4.104518831159394</v>
+        <v>0.020205727598</v>
       </c>
       <c r="S17">
-        <v>0.003407149674519668</v>
+        <v>1.758565250209817E-06</v>
       </c>
       <c r="T17">
-        <v>0.003407149674519668</v>
+        <v>2.773252349442384E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>14.7979776567198</v>
+        <v>0.007919333333333334</v>
       </c>
       <c r="H18">
-        <v>14.7979776567198</v>
+        <v>0.023758</v>
       </c>
       <c r="I18">
-        <v>0.3361103083179524</v>
+        <v>0.0001737492866976733</v>
       </c>
       <c r="J18">
-        <v>0.3361103083179524</v>
+        <v>0.0002178199532428814</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>8.341486439949</v>
+        <v>8.787034999999999</v>
       </c>
       <c r="N18">
-        <v>8.341486439949</v>
+        <v>26.361105</v>
       </c>
       <c r="O18">
-        <v>0.304854733672173</v>
+        <v>0.31371439855289</v>
       </c>
       <c r="P18">
-        <v>0.304854733672173</v>
+        <v>0.3946305695630727</v>
       </c>
       <c r="Q18">
-        <v>123.4371299621965</v>
+        <v>0.06958745917666667</v>
       </c>
       <c r="R18">
-        <v>123.4371299621965</v>
+        <v>0.62628713259</v>
       </c>
       <c r="S18">
-        <v>0.1024648185267413</v>
+        <v>5.450765297535422E-05</v>
       </c>
       <c r="T18">
-        <v>0.1024648185267413</v>
+        <v>8.595841221044019E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>24</v>
       </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>14.7979776567198</v>
+        <v>0.007919333333333334</v>
       </c>
       <c r="H19">
-        <v>14.7979776567198</v>
+        <v>0.023758</v>
       </c>
       <c r="I19">
-        <v>0.3361103083179524</v>
+        <v>0.0001737492866976733</v>
       </c>
       <c r="J19">
-        <v>0.3361103083179524</v>
+        <v>0.0002178199532428814</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.593818233967264</v>
+        <v>0.647081</v>
       </c>
       <c r="N19">
-        <v>0.593818233967264</v>
+        <v>1.294162</v>
       </c>
       <c r="O19">
-        <v>0.02170216314190606</v>
+        <v>0.02310206192760159</v>
       </c>
       <c r="P19">
-        <v>0.02170216314190606</v>
+        <v>0.01937384214989794</v>
       </c>
       <c r="Q19">
-        <v>8.787308958400383</v>
+        <v>0.005124450132666667</v>
       </c>
       <c r="R19">
-        <v>8.787308958400383</v>
+        <v>0.030746700796</v>
       </c>
       <c r="S19">
-        <v>0.007294320744792547</v>
+        <v>4.013966781166251E-06</v>
       </c>
       <c r="T19">
-        <v>0.007294320744792547</v>
+        <v>4.220009391225736E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.27032749822399</v>
+        <v>15.09019966666667</v>
       </c>
       <c r="H20">
-        <v>2.27032749822399</v>
+        <v>45.270599</v>
       </c>
       <c r="I20">
-        <v>0.05156653788190266</v>
+        <v>0.3310772912124926</v>
       </c>
       <c r="J20">
-        <v>0.05156653788190266</v>
+        <v>0.4150534454691992</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>16.5639841433086</v>
+        <v>16.582462</v>
       </c>
       <c r="N20">
-        <v>16.5639841433086</v>
+        <v>33.164924</v>
       </c>
       <c r="O20">
-        <v>0.6053608084015915</v>
+        <v>0.5920264449676317</v>
       </c>
       <c r="P20">
-        <v>0.6053608084015915</v>
+        <v>0.4964849860290766</v>
       </c>
       <c r="Q20">
-        <v>37.60566868069965</v>
+        <v>250.2326625449126</v>
       </c>
       <c r="R20">
-        <v>37.60566868069965</v>
+        <v>1501.395975269476</v>
       </c>
       <c r="S20">
-        <v>0.03121636105865988</v>
+        <v>0.1960065117260453</v>
       </c>
       <c r="T20">
-        <v>0.03121636105865988</v>
+        <v>0.2060678040750955</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.27032749822399</v>
+        <v>15.09019966666667</v>
       </c>
       <c r="H21">
-        <v>2.27032749822399</v>
+        <v>45.270599</v>
       </c>
       <c r="I21">
-        <v>0.05156653788190266</v>
+        <v>0.3310772912124926</v>
       </c>
       <c r="J21">
-        <v>0.05156653788190266</v>
+        <v>0.4150534454691992</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.52618702799291</v>
+        <v>1.623796</v>
       </c>
       <c r="N21">
-        <v>1.52618702799291</v>
+        <v>4.871388</v>
       </c>
       <c r="O21">
-        <v>0.0557772698310049</v>
+        <v>0.05797270473061601</v>
       </c>
       <c r="P21">
-        <v>0.0557772698310049</v>
+        <v>0.07292557049496665</v>
       </c>
       <c r="Q21">
-        <v>3.46494437708505</v>
+        <v>24.50340585793466</v>
       </c>
       <c r="R21">
-        <v>3.46494437708505</v>
+        <v>220.530652721412</v>
       </c>
       <c r="S21">
-        <v>0.00287624069768962</v>
+        <v>0.01919344604647401</v>
       </c>
       <c r="T21">
-        <v>0.00287624069768962</v>
+        <v>0.03026800929674288</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.27032749822399</v>
+        <v>15.09019966666667</v>
       </c>
       <c r="H22">
-        <v>2.27032749822399</v>
+        <v>45.270599</v>
       </c>
       <c r="I22">
-        <v>0.05156653788190266</v>
+        <v>0.3310772912124926</v>
       </c>
       <c r="J22">
-        <v>0.05156653788190266</v>
+        <v>0.4150534454691992</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.0593219054180835</v>
+        <v>0.08579666666666667</v>
       </c>
       <c r="N22">
-        <v>0.0593219054180835</v>
+        <v>0.25739</v>
       </c>
       <c r="O22">
-        <v>0.002168026503111627</v>
+        <v>0.003063109419864166</v>
       </c>
       <c r="P22">
-        <v>0.002168026503111627</v>
+        <v>0.003853175437821719</v>
       </c>
       <c r="Q22">
-        <v>0.1346801531177177</v>
+        <v>1.294688830734444</v>
       </c>
       <c r="R22">
-        <v>0.1346801531177177</v>
+        <v>11.65219947661</v>
       </c>
       <c r="S22">
-        <v>0.0001117976208016746</v>
+        <v>0.001014125969416098</v>
       </c>
       <c r="T22">
-        <v>0.0001117976208016746</v>
+        <v>0.001599273741465195</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
         <v>27</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.27032749822399</v>
+        <v>15.09019966666667</v>
       </c>
       <c r="H23">
-        <v>2.27032749822399</v>
+        <v>45.270599</v>
       </c>
       <c r="I23">
-        <v>0.05156653788190266</v>
+        <v>0.3310772912124926</v>
       </c>
       <c r="J23">
-        <v>0.05156653788190266</v>
+        <v>0.4150534454691992</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.277370254664192</v>
+        <v>0.2834936666666667</v>
       </c>
       <c r="N23">
-        <v>0.277370254664192</v>
+        <v>0.850481</v>
       </c>
       <c r="O23">
-        <v>0.01013699845021292</v>
+        <v>0.0101212804013967</v>
       </c>
       <c r="P23">
-        <v>0.01013699845021292</v>
+        <v>0.01273185632516436</v>
       </c>
       <c r="Q23">
-        <v>0.629721316353506</v>
+        <v>4.277976034235444</v>
       </c>
       <c r="R23">
-        <v>0.629721316353506</v>
+        <v>38.501784308119</v>
       </c>
       <c r="S23">
-        <v>0.0005227299145916928</v>
+        <v>0.003350926098896508</v>
       </c>
       <c r="T23">
-        <v>0.0005227299145916928</v>
+        <v>0.005284400834978283</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.27032749822399</v>
+        <v>15.09019966666667</v>
       </c>
       <c r="H24">
-        <v>2.27032749822399</v>
+        <v>45.270599</v>
       </c>
       <c r="I24">
-        <v>0.05156653788190266</v>
+        <v>0.3310772912124926</v>
       </c>
       <c r="J24">
-        <v>0.05156653788190266</v>
+        <v>0.4150534454691992</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>8.341486439949</v>
+        <v>8.787034999999999</v>
       </c>
       <c r="N24">
-        <v>8.341486439949</v>
+        <v>26.361105</v>
       </c>
       <c r="O24">
-        <v>0.304854733672173</v>
+        <v>0.31371439855289</v>
       </c>
       <c r="P24">
-        <v>0.304854733672173</v>
+        <v>0.3946305695630727</v>
       </c>
       <c r="Q24">
-        <v>18.93790604067875</v>
+        <v>132.5981126279883</v>
       </c>
       <c r="R24">
-        <v>18.93790604067875</v>
+        <v>1193.383013651895</v>
       </c>
       <c r="S24">
-        <v>0.01572030317238346</v>
+        <v>0.1038637132872471</v>
       </c>
       <c r="T24">
-        <v>0.01572030317238346</v>
+        <v>0.1637927775846258</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,433 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>15.09019966666667</v>
+      </c>
+      <c r="H25">
+        <v>45.270599</v>
+      </c>
+      <c r="I25">
+        <v>0.3310772912124926</v>
+      </c>
+      <c r="J25">
+        <v>0.4150534454691992</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.647081</v>
+      </c>
+      <c r="N25">
+        <v>1.294162</v>
+      </c>
+      <c r="O25">
+        <v>0.02310206192760159</v>
+      </c>
+      <c r="P25">
+        <v>0.01937384214989794</v>
+      </c>
+      <c r="Q25">
+        <v>9.764581490506332</v>
+      </c>
+      <c r="R25">
+        <v>58.587488943038</v>
+      </c>
+      <c r="S25">
+        <v>0.00764856808441359</v>
+      </c>
+      <c r="T25">
+        <v>0.00804117993629154</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>3.0996985</v>
+      </c>
+      <c r="H26">
+        <v>6.199396999999999</v>
+      </c>
+      <c r="I26">
+        <v>0.06800703805280509</v>
+      </c>
+      <c r="J26">
+        <v>0.05683779630751996</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>16.582462</v>
+      </c>
+      <c r="N26">
+        <v>33.164924</v>
+      </c>
+      <c r="O26">
+        <v>0.5920264449676317</v>
+      </c>
+      <c r="P26">
+        <v>0.4964849860290766</v>
+      </c>
+      <c r="Q26">
+        <v>51.40063258770699</v>
+      </c>
+      <c r="R26">
+        <v>205.602530350828</v>
+      </c>
+      <c r="S26">
+        <v>0.04026196497118064</v>
+      </c>
+      <c r="T26">
+        <v>0.02821911250566255</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>3.0996985</v>
+      </c>
+      <c r="H27">
+        <v>6.199396999999999</v>
+      </c>
+      <c r="I27">
+        <v>0.06800703805280509</v>
+      </c>
+      <c r="J27">
+        <v>0.05683779630751996</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1.623796</v>
+      </c>
+      <c r="N27">
+        <v>4.871388</v>
+      </c>
+      <c r="O27">
+        <v>0.05797270473061601</v>
+      </c>
+      <c r="P27">
+        <v>0.07292557049496665</v>
+      </c>
+      <c r="Q27">
+        <v>5.033278025505999</v>
+      </c>
+      <c r="R27">
+        <v>30.19966815303599</v>
+      </c>
+      <c r="S27">
+        <v>0.003942551936639036</v>
+      </c>
+      <c r="T27">
+        <v>0.004144928721402602</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>3.0996985</v>
+      </c>
+      <c r="H28">
+        <v>6.199396999999999</v>
+      </c>
+      <c r="I28">
+        <v>0.06800703805280509</v>
+      </c>
+      <c r="J28">
+        <v>0.05683779630751996</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0.08579666666666667</v>
+      </c>
+      <c r="N28">
+        <v>0.25739</v>
+      </c>
+      <c r="O28">
+        <v>0.003063109419864166</v>
+      </c>
+      <c r="P28">
+        <v>0.003853175437821719</v>
+      </c>
+      <c r="Q28">
+        <v>0.2659437989716666</v>
+      </c>
+      <c r="R28">
+        <v>1.59566279383</v>
+      </c>
+      <c r="S28">
+        <v>0.000208312998876608</v>
+      </c>
+      <c r="T28">
+        <v>0.0002190060006720499</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>3.0996985</v>
+      </c>
+      <c r="H29">
+        <v>6.199396999999999</v>
+      </c>
+      <c r="I29">
+        <v>0.06800703805280509</v>
+      </c>
+      <c r="J29">
+        <v>0.05683779630751996</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.2834936666666667</v>
+      </c>
+      <c r="N29">
+        <v>0.850481</v>
+      </c>
+      <c r="O29">
+        <v>0.0101212804013967</v>
+      </c>
+      <c r="P29">
+        <v>0.01273185632516436</v>
+      </c>
+      <c r="Q29">
+        <v>0.8787448933261667</v>
+      </c>
+      <c r="R29">
+        <v>5.272469359956999</v>
+      </c>
+      <c r="S29">
+        <v>0.0006883183014008955</v>
+      </c>
+      <c r="T29">
+        <v>0.0007236506564263013</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>2.27032749822399</v>
-      </c>
-      <c r="H25">
-        <v>2.27032749822399</v>
-      </c>
-      <c r="I25">
-        <v>0.05156653788190266</v>
-      </c>
-      <c r="J25">
-        <v>0.05156653788190266</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>0.593818233967264</v>
-      </c>
-      <c r="N25">
-        <v>0.593818233967264</v>
-      </c>
-      <c r="O25">
-        <v>0.02170216314190606</v>
-      </c>
-      <c r="P25">
-        <v>0.02170216314190606</v>
-      </c>
-      <c r="Q25">
-        <v>1.348161865522686</v>
-      </c>
-      <c r="R25">
-        <v>1.348161865522686</v>
-      </c>
-      <c r="S25">
-        <v>0.00111910541777633</v>
-      </c>
-      <c r="T25">
-        <v>0.00111910541777633</v>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>3.0996985</v>
+      </c>
+      <c r="H30">
+        <v>6.199396999999999</v>
+      </c>
+      <c r="I30">
+        <v>0.06800703805280509</v>
+      </c>
+      <c r="J30">
+        <v>0.05683779630751996</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>8.787034999999999</v>
+      </c>
+      <c r="N30">
+        <v>26.361105</v>
+      </c>
+      <c r="O30">
+        <v>0.31371439855289</v>
+      </c>
+      <c r="P30">
+        <v>0.3946305695630727</v>
+      </c>
+      <c r="Q30">
+        <v>27.2371592089475</v>
+      </c>
+      <c r="R30">
+        <v>163.422955253685</v>
+      </c>
+      <c r="S30">
+        <v>0.02133478704009925</v>
+      </c>
+      <c r="T30">
+        <v>0.02242993192954652</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>3.0996985</v>
+      </c>
+      <c r="H31">
+        <v>6.199396999999999</v>
+      </c>
+      <c r="I31">
+        <v>0.06800703805280509</v>
+      </c>
+      <c r="J31">
+        <v>0.05683779630751996</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.647081</v>
+      </c>
+      <c r="N31">
+        <v>1.294162</v>
+      </c>
+      <c r="O31">
+        <v>0.02310206192760159</v>
+      </c>
+      <c r="P31">
+        <v>0.01937384214989794</v>
+      </c>
+      <c r="Q31">
+        <v>2.0057560050785</v>
+      </c>
+      <c r="R31">
+        <v>8.023024020313999</v>
+      </c>
+      <c r="S31">
+        <v>0.001571102804608661</v>
+      </c>
+      <c r="T31">
+        <v>0.001101166493809944</v>
       </c>
     </row>
   </sheetData>
